--- a/doc/Anforderungsanalyse.xlsx
+++ b/doc/Anforderungsanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/dominic_rohner_edu_teko_ch/Documents/Lösungsalgorithmen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{4EA95529-389E-4EF5-B4C5-B2CC0344BC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D7A744-C048-48C4-8AAA-44C6A6FF4569}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{4EA95529-389E-4EF5-B4C5-B2CC0344BC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{928C584C-638F-4569-B03D-907204633CDF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0BB8202-58BD-4646-8C39-A324F048AB56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Analyse der Aktivitäten</t>
   </si>
@@ -120,18 +120,12 @@
     <t>Projekt ertellen</t>
   </si>
   <si>
-    <t>Informationen</t>
-  </si>
-  <si>
     <t>Projekttittel eingeben</t>
   </si>
   <si>
     <t>Informationen eingeben</t>
   </si>
   <si>
-    <t>Datum eingeben</t>
-  </si>
-  <si>
     <t>Projektbeschreibung eingeben</t>
   </si>
   <si>
@@ -187,6 +181,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Tags zum Projekt</t>
+  </si>
+  <si>
+    <t>Datum setzen</t>
+  </si>
+  <si>
+    <t>Informationen kommentieren</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Information auswählen</t>
+  </si>
+  <si>
+    <t>Kommentar hinzufügen</t>
+  </si>
+  <si>
+    <t>- Information korrekt</t>
+  </si>
+  <si>
+    <t>- Kommentar gespeichert</t>
+  </si>
+  <si>
+    <t>- Kommentar korrekt zugeordnet</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
   </si>
 </sst>
 </file>
@@ -370,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,15 +757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22A7B44-AC69-4796-96EE-83E6E7BCE66A}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="7" width="10.85546875" customWidth="1"/>
@@ -767,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -838,11 +860,11 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="5"/>
@@ -854,7 +876,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="22"/>
@@ -866,10 +888,10 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="22">
         <v>3</v>
@@ -878,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" ref="G9:G16" si="0">E9*F9</f>
+        <f t="shared" ref="G9:G20" si="0">E9*F9</f>
         <v>9</v>
       </c>
       <c r="H9" s="2"/>
@@ -887,7 +909,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -900,21 +922,21 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
@@ -932,10 +954,10 @@
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -948,17 +970,17 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="22">
         <v>2</v>
@@ -971,21 +993,21 @@
         <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="22">
         <v>2</v>
@@ -1004,7 +1026,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="22">
         <v>2</v>
@@ -1023,7 +1045,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="22">
         <v>2</v>
@@ -1037,97 +1059,135 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="23" t="s">
-        <v>13</v>
-      </c>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2</v>
+      </c>
+      <c r="F18" s="22">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="24" t="s">
-        <v>15</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="22">
+        <v>2</v>
+      </c>
+      <c r="F19" s="22">
+        <v>4</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>4</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="19"/>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="24" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1135,7 +1195,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="1"/>
@@ -1147,30 +1207,80 @@
       <c r="C25" s="1"/>
       <c r="D25" s="15"/>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="19"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="20"/>
-      <c r="E27" s="18" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="20"/>
+      <c r="E31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1178,7 +1288,7 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G16">
+  <conditionalFormatting sqref="G8:G20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1196,6 +1306,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003C585B5E059BE74B982529785D5EF637" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7838a5c41ea5ef9e6ecb807ded1bc107">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="951af6be-6046-4eef-b3b3-f0d3d7251f78" xmlns:ns3="836b9740-004b-4d2f-8e31-c15757a7dfbb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="785a426b244f79633c67c9d344610097" ns2:_="" ns3:_="">
     <xsd:import namespace="951af6be-6046-4eef-b3b3-f0d3d7251f78"/>
@@ -1396,15 +1515,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1417,6 +1527,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132F980-2A9F-419F-8E83-DA2C210F9C1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E13F1E44-CC2D-4D92-9BCF-B46935442E6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1435,14 +1553,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132F980-2A9F-419F-8E83-DA2C210F9C1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F14CDCB-A53A-4D95-891F-656AA12A8A8A}">
   <ds:schemaRefs>
